--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-714743.342669796</v>
+        <v>-716963.7120687441</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.95408485166898</v>
+        <v>413.954084851669</v>
       </c>
       <c r="H2" t="n">
-        <v>325.6629130260453</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>158.4819577621303</v>
+        <v>158.4819577621302</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.15181506969924</v>
+        <v>65.15181506969903</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>178.2876470175122</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.1921225298086</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>250.8058892777237</v>
       </c>
       <c r="W2" t="n">
-        <v>39.42168099110187</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -753,10 +753,10 @@
         <v>136.6219243725646</v>
       </c>
       <c r="H3" t="n">
-        <v>105.2663770215731</v>
+        <v>105.266377021573</v>
       </c>
       <c r="I3" t="n">
-        <v>28.73526227300762</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>55.35578351937533</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>158.2799015056541</v>
       </c>
       <c r="T3" t="n">
-        <v>197.2562033676124</v>
+        <v>114.8140655101321</v>
       </c>
       <c r="U3" t="n">
         <v>225.8939088710639</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>73.53294373778904</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.386020202654</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>150.0922278807118</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>202.6947941109305</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>79.87091800404711</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>284.3280794548172</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>94.45289593214784</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>163.7978702804878</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>166.8150255101335</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>354.752216257426</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>90.27998741352613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>182.8258003202644</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>51.85714413757187</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>80.84849971876338</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784705</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.2118455410276</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>114.1627038799791</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881778</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>118.0932809216404</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>29.555744385394</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881765</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.16836829528627</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2059,13 +2059,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>95.36297847286448</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.917970139622</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>58.55039260130411</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>39.53184173590594</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2479,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785991</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>31.24123032771169</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>27.65913193862761</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>89.02192680088517</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>59.30629139240326</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>2.451630061592469</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,16 +3001,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3205,7 +3205,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>188.0958335541258</v>
+        <v>142.3844270995955</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,16 +3667,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I40" t="n">
         <v>49.37728379124555</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1287.318991414405</v>
+        <v>1039.219146548005</v>
       </c>
       <c r="C2" t="n">
-        <v>918.3564744739936</v>
+        <v>1039.219146548005</v>
       </c>
       <c r="D2" t="n">
-        <v>560.0907758672431</v>
+        <v>1039.219146548005</v>
       </c>
       <c r="E2" t="n">
-        <v>560.0907758672431</v>
+        <v>1039.219146548005</v>
       </c>
       <c r="F2" t="n">
-        <v>553.1452751180396</v>
+        <v>628.2332417583979</v>
       </c>
       <c r="G2" t="n">
-        <v>539.0502399143336</v>
+        <v>210.0978025142878</v>
       </c>
       <c r="H2" t="n">
         <v>210.0978025142878</v>
       </c>
       <c r="I2" t="n">
-        <v>50.01501689597438</v>
+        <v>50.01501689597446</v>
       </c>
       <c r="J2" t="n">
-        <v>151.5057773408028</v>
+        <v>151.5057773408032</v>
       </c>
       <c r="K2" t="n">
-        <v>424.3589227296933</v>
+        <v>424.3589227296943</v>
       </c>
       <c r="L2" t="n">
-        <v>815.1340044523745</v>
+        <v>815.1340044523761</v>
       </c>
       <c r="M2" t="n">
-        <v>1266.553122639177</v>
+        <v>1266.553122639179</v>
       </c>
       <c r="N2" t="n">
-        <v>1710.644676556586</v>
+        <v>1710.644676556589</v>
       </c>
       <c r="O2" t="n">
-        <v>2084.800100136287</v>
+        <v>2084.80010013629</v>
       </c>
       <c r="P2" t="n">
-        <v>2366.458714862365</v>
+        <v>2366.458714862369</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.750844798719</v>
+        <v>2500.750844798723</v>
       </c>
       <c r="R2" t="n">
-        <v>2434.940930586901</v>
+        <v>2434.940930586906</v>
       </c>
       <c r="S2" t="n">
-        <v>2434.940930586901</v>
+        <v>2254.852398245984</v>
       </c>
       <c r="T2" t="n">
-        <v>2434.940930586901</v>
+        <v>2035.466415892642</v>
       </c>
       <c r="U2" t="n">
-        <v>2434.940930586901</v>
+        <v>2035.466415892642</v>
       </c>
       <c r="V2" t="n">
-        <v>2103.87804324333</v>
+        <v>1782.127133793931</v>
       </c>
       <c r="W2" t="n">
-        <v>2064.058163454339</v>
+        <v>1429.358478523817</v>
       </c>
       <c r="X2" t="n">
-        <v>2064.058163454339</v>
+        <v>1429.358478523817</v>
       </c>
       <c r="Y2" t="n">
-        <v>1673.918831478527</v>
+        <v>1039.219146548005</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>952.5316038342417</v>
+        <v>923.5060863867594</v>
       </c>
       <c r="C3" t="n">
-        <v>778.0785745531147</v>
+        <v>749.0530571056324</v>
       </c>
       <c r="D3" t="n">
-        <v>629.1441648918634</v>
+        <v>600.1186474443812</v>
       </c>
       <c r="E3" t="n">
-        <v>469.9067098864079</v>
+        <v>440.8811924389256</v>
       </c>
       <c r="F3" t="n">
-        <v>323.3721519132929</v>
+        <v>294.3466344658106</v>
       </c>
       <c r="G3" t="n">
-        <v>185.3702081026215</v>
+        <v>156.3446906551392</v>
       </c>
       <c r="H3" t="n">
-        <v>79.04053434345683</v>
+        <v>50.01501689597446</v>
       </c>
       <c r="I3" t="n">
-        <v>50.01501689597438</v>
+        <v>50.01501689597446</v>
       </c>
       <c r="J3" t="n">
-        <v>50.01501689597438</v>
+        <v>116.7688388525971</v>
       </c>
       <c r="K3" t="n">
-        <v>290.72877412698</v>
+        <v>357.4825960836031</v>
       </c>
       <c r="L3" t="n">
-        <v>675.8025229335831</v>
+        <v>742.5563448902066</v>
       </c>
       <c r="M3" t="n">
-        <v>1177.144646675848</v>
+        <v>1243.898468632472</v>
       </c>
       <c r="N3" t="n">
-        <v>1707.46281803098</v>
+        <v>1774.216639987604</v>
       </c>
       <c r="O3" t="n">
-        <v>2126.184660505437</v>
+        <v>2192.938482462062</v>
       </c>
       <c r="P3" t="n">
-        <v>2340.166706403056</v>
+        <v>2340.166706403059</v>
       </c>
       <c r="Q3" t="n">
-        <v>2500.750844798719</v>
+        <v>2500.750844798723</v>
       </c>
       <c r="R3" t="n">
-        <v>2444.835911950865</v>
+        <v>2500.750844798723</v>
       </c>
       <c r="S3" t="n">
-        <v>2284.957223561315</v>
+        <v>2340.872156409173</v>
       </c>
       <c r="T3" t="n">
-        <v>2085.708533291</v>
+        <v>2224.898352863585</v>
       </c>
       <c r="U3" t="n">
-        <v>1857.532867764673</v>
+        <v>1996.722687337258</v>
       </c>
       <c r="V3" t="n">
-        <v>1622.38075953293</v>
+        <v>1761.570579105516</v>
       </c>
       <c r="W3" t="n">
-        <v>1368.143402804728</v>
+        <v>1507.333222377314</v>
       </c>
       <c r="X3" t="n">
-        <v>1160.291902599196</v>
+        <v>1299.481722171781</v>
       </c>
       <c r="Y3" t="n">
-        <v>952.5316038342417</v>
+        <v>1091.721423406827</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>440.2574532226151</v>
+        <v>50.01501689597446</v>
       </c>
       <c r="C4" t="n">
-        <v>365.9817524773737</v>
+        <v>50.01501689597446</v>
       </c>
       <c r="D4" t="n">
-        <v>365.9817524773737</v>
+        <v>50.01501689597446</v>
       </c>
       <c r="E4" t="n">
-        <v>365.9817524773737</v>
+        <v>50.01501689597446</v>
       </c>
       <c r="F4" t="n">
-        <v>219.0918049794633</v>
+        <v>50.01501689597446</v>
       </c>
       <c r="G4" t="n">
-        <v>50.01501689597438</v>
+        <v>50.01501689597446</v>
       </c>
       <c r="H4" t="n">
-        <v>50.01501689597438</v>
+        <v>50.01501689597446</v>
       </c>
       <c r="I4" t="n">
-        <v>50.01501689597438</v>
+        <v>50.01501689597446</v>
       </c>
       <c r="J4" t="n">
-        <v>50.01501689597438</v>
+        <v>50.01501689597446</v>
       </c>
       <c r="K4" t="n">
-        <v>97.55062208901371</v>
+        <v>97.55062208901398</v>
       </c>
       <c r="L4" t="n">
-        <v>213.906265403006</v>
+        <v>213.9062654030064</v>
       </c>
       <c r="M4" t="n">
-        <v>346.9761001071013</v>
+        <v>346.976100107102</v>
       </c>
       <c r="N4" t="n">
-        <v>482.3164479894912</v>
+        <v>482.3164479894922</v>
       </c>
       <c r="O4" t="n">
-        <v>591.3088692144621</v>
+        <v>591.3088692144632</v>
       </c>
       <c r="P4" t="n">
-        <v>661.0500323661453</v>
+        <v>661.0500323661465</v>
       </c>
       <c r="Q4" t="n">
-        <v>661.0500323661453</v>
+        <v>661.0500323661465</v>
       </c>
       <c r="R4" t="n">
-        <v>661.0500323661453</v>
+        <v>509.4417213755286</v>
       </c>
       <c r="S4" t="n">
-        <v>661.0500323661453</v>
+        <v>509.4417213755286</v>
       </c>
       <c r="T4" t="n">
-        <v>661.0500323661453</v>
+        <v>509.4417213755286</v>
       </c>
       <c r="U4" t="n">
-        <v>661.0500323661453</v>
+        <v>509.4417213755286</v>
       </c>
       <c r="V4" t="n">
-        <v>661.0500323661453</v>
+        <v>254.7572331696417</v>
       </c>
       <c r="W4" t="n">
-        <v>661.0500323661453</v>
+        <v>50.01501689597446</v>
       </c>
       <c r="X4" t="n">
-        <v>661.0500323661453</v>
+        <v>50.01501689597446</v>
       </c>
       <c r="Y4" t="n">
-        <v>440.2574532226151</v>
+        <v>50.01501689597446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1209.912517095719</v>
+        <v>1359.546482223454</v>
       </c>
       <c r="C5" t="n">
-        <v>840.9500001553076</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D5" t="n">
-        <v>482.6843015485571</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.912517095719</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195.0064718412582</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="C7" t="n">
-        <v>195.0064718412582</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="D7" t="n">
-        <v>195.0064718412582</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="E7" t="n">
-        <v>195.0064718412582</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F7" t="n">
-        <v>195.0064718412582</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>195.0064718412582</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>195.0064718412582</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="W7" t="n">
-        <v>195.0064718412582</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="X7" t="n">
-        <v>195.0064718412582</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="Y7" t="n">
-        <v>195.0064718412582</v>
+        <v>562.6765899837193</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1533.27522618254</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.312709242129</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2310.014398222474</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2310.014398222474</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2310.014398222474</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2310.014398222474</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1919.875066246662</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>293.0479818810668</v>
+        <v>361.80799380017</v>
       </c>
       <c r="C10" t="n">
-        <v>293.0479818810668</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D10" t="n">
-        <v>293.0479818810668</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>145.1348882986737</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>543.4564586304098</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>543.4564586304098</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>543.4564586304098</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>543.4564586304098</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>543.4564586304098</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245969</v>
+        <v>543.4564586304098</v>
       </c>
       <c r="Y10" t="n">
-        <v>293.0479818810668</v>
+        <v>543.4564586304098</v>
       </c>
     </row>
     <row r="11">
@@ -5018,73 +5018,73 @@
         <v>2034.004827175962</v>
       </c>
       <c r="C11" t="n">
-        <v>1665.042310235551</v>
+        <v>1665.04231023555</v>
       </c>
       <c r="D11" t="n">
         <v>1306.7766116288</v>
       </c>
       <c r="E11" t="n">
-        <v>1254.395657954485</v>
+        <v>920.9883590305558</v>
       </c>
       <c r="F11" t="n">
-        <v>843.4097531648777</v>
+        <v>510.0024542409483</v>
       </c>
       <c r="G11" t="n">
         <v>428.3373030098742</v>
       </c>
       <c r="H11" t="n">
-        <v>130.7537026186415</v>
+        <v>130.7537026186414</v>
       </c>
       <c r="I11" t="n">
-        <v>88.75680385811017</v>
+        <v>88.75680385811015</v>
       </c>
       <c r="J11" t="n">
-        <v>277.6359348171356</v>
+        <v>445.0415838374886</v>
       </c>
       <c r="K11" t="n">
-        <v>611.4553085069822</v>
+        <v>778.8609575273351</v>
       </c>
       <c r="L11" t="n">
-        <v>1475.974124160337</v>
+        <v>1229.895170775744</v>
       </c>
       <c r="M11" t="n">
-        <v>2253.037655129863</v>
+        <v>2208.445473605573</v>
       </c>
       <c r="N11" t="n">
-        <v>3232.789927356509</v>
+        <v>2914.20920626674</v>
       </c>
       <c r="O11" t="n">
-        <v>3735.762398235846</v>
+        <v>3417.181677146077</v>
       </c>
       <c r="P11" t="n">
-        <v>4130.536764593025</v>
+        <v>4130.536764593023</v>
       </c>
       <c r="Q11" t="n">
-        <v>4378.823126348707</v>
+        <v>4378.823126348705</v>
       </c>
       <c r="R11" t="n">
-        <v>4437.840192905509</v>
+        <v>4437.840192905507</v>
       </c>
       <c r="S11" t="n">
-        <v>4327.549524432604</v>
+        <v>4327.549524432602</v>
       </c>
       <c r="T11" t="n">
-        <v>4121.571776816826</v>
+        <v>4121.571776816823</v>
       </c>
       <c r="U11" t="n">
-        <v>3868.041300090662</v>
+        <v>3868.04130009066</v>
       </c>
       <c r="V11" t="n">
-        <v>3536.978412747092</v>
+        <v>3536.978412747089</v>
       </c>
       <c r="W11" t="n">
-        <v>3184.209757476977</v>
+        <v>3184.209757476975</v>
       </c>
       <c r="X11" t="n">
-        <v>2810.743999215896</v>
+        <v>2810.743999215895</v>
       </c>
       <c r="Y11" t="n">
-        <v>2420.604667240084</v>
+        <v>2420.604667240083</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5112,19 @@
         <v>198.2659898187047</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7640954565721</v>
+        <v>107.7640954565722</v>
       </c>
       <c r="I12" t="n">
-        <v>88.75680385811017</v>
+        <v>88.75680385811015</v>
       </c>
       <c r="J12" t="n">
-        <v>182.4340733487278</v>
+        <v>182.4340733487275</v>
       </c>
       <c r="K12" t="n">
-        <v>420.6982723290747</v>
+        <v>420.6982723290746</v>
       </c>
       <c r="L12" t="n">
-        <v>787.3964326417398</v>
+        <v>787.3964326417397</v>
       </c>
       <c r="M12" t="n">
         <v>1234.672757864056</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>533.0037236349813</v>
+        <v>666.5785440687241</v>
       </c>
       <c r="C13" t="n">
-        <v>533.0037236349813</v>
+        <v>666.5785440687241</v>
       </c>
       <c r="D13" t="n">
-        <v>382.8870842226455</v>
+        <v>551.2626815636947</v>
       </c>
       <c r="E13" t="n">
-        <v>234.9739906402524</v>
+        <v>403.3495879813016</v>
       </c>
       <c r="F13" t="n">
-        <v>234.9739906402524</v>
+        <v>256.4596404833912</v>
       </c>
       <c r="G13" t="n">
-        <v>234.9739906402524</v>
+        <v>88.75680385811015</v>
       </c>
       <c r="H13" t="n">
-        <v>88.75680385811017</v>
+        <v>88.75680385811015</v>
       </c>
       <c r="I13" t="n">
-        <v>88.75680385811017</v>
+        <v>88.75680385811015</v>
       </c>
       <c r="J13" t="n">
         <v>133.8794363050456</v>
       </c>
       <c r="K13" t="n">
-        <v>337.8666192539221</v>
+        <v>337.8666192539217</v>
       </c>
       <c r="L13" t="n">
-        <v>654.4264177024181</v>
+        <v>654.4264177024179</v>
       </c>
       <c r="M13" t="n">
-        <v>998.5834633019671</v>
+        <v>998.583463301967</v>
       </c>
       <c r="N13" t="n">
         <v>1339.991840007832</v>
@@ -5215,34 +5215,34 @@
         <v>1639.321438928245</v>
       </c>
       <c r="P13" t="n">
-        <v>1871.928939361905</v>
+        <v>1871.928939361904</v>
       </c>
       <c r="Q13" t="n">
         <v>1949.539235514419</v>
       </c>
       <c r="R13" t="n">
-        <v>1859.708778271947</v>
+        <v>1949.539235514419</v>
       </c>
       <c r="S13" t="n">
-        <v>1668.022894098773</v>
+        <v>1949.539235514419</v>
       </c>
       <c r="T13" t="n">
-        <v>1668.022894098773</v>
+        <v>1727.772620083946</v>
       </c>
       <c r="U13" t="n">
-        <v>1378.920027224417</v>
+        <v>1438.669753209589</v>
       </c>
       <c r="V13" t="n">
-        <v>1124.23553901853</v>
+        <v>1183.985265003702</v>
       </c>
       <c r="W13" t="n">
-        <v>834.8183689815692</v>
+        <v>894.5680949667415</v>
       </c>
       <c r="X13" t="n">
-        <v>834.8183689815692</v>
+        <v>666.5785440687241</v>
       </c>
       <c r="Y13" t="n">
-        <v>614.025789838039</v>
+        <v>666.5785440687241</v>
       </c>
     </row>
     <row r="14">
@@ -5255,73 +5255,73 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972664</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272055</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330837</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660292</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107238</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5361,7 +5361,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>972.7495048756253</v>
+        <v>680.5797464134954</v>
       </c>
       <c r="C16" t="n">
-        <v>803.8133219477185</v>
+        <v>680.5797464134954</v>
       </c>
       <c r="D16" t="n">
-        <v>653.6966825353827</v>
+        <v>530.4631070011598</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>382.5500134187666</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374724</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,7 +5449,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
@@ -5464,22 +5464,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1926.48917884673</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1671.804690640843</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>1382.387520603882</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>1154.397969705865</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y16" t="n">
-        <v>1154.397969705865</v>
+        <v>680.5797464134954</v>
       </c>
     </row>
     <row r="17">
@@ -5492,52 +5492,52 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>416.3606924710451</v>
       </c>
       <c r="K17" t="n">
-        <v>1098.605412891585</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L17" t="n">
-        <v>1549.639626139994</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.189928969823</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N17" t="n">
-        <v>3507.942201196469</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946816</v>
@@ -5546,13 +5546,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5589,16 +5589,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>761.5165984104578</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C19" t="n">
-        <v>592.580415482551</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D19" t="n">
-        <v>558.0669121539789</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5680,7 +5680,7 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1163.957642384228</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W19" t="n">
-        <v>1163.957642384228</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X19" t="n">
-        <v>1163.957642384228</v>
+        <v>613.3602005021706</v>
       </c>
       <c r="Y19" t="n">
-        <v>943.1650632406976</v>
+        <v>392.5676213586405</v>
       </c>
     </row>
     <row r="20">
@@ -5747,37 +5747,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972664</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M20" t="n">
-        <v>2047.844055175504</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N20" t="n">
-        <v>3027.596327402151</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O20" t="n">
-        <v>3907.560977731605</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P20" t="n">
-        <v>4302.335344088783</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5786,16 +5786,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5835,7 +5835,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>706.4876447660638</v>
+        <v>788.3484516202165</v>
       </c>
       <c r="C22" t="n">
-        <v>706.4876447660638</v>
+        <v>619.4122686923096</v>
       </c>
       <c r="D22" t="n">
-        <v>556.371005353728</v>
+        <v>469.2956292799738</v>
       </c>
       <c r="E22" t="n">
-        <v>556.371005353728</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5923,7 +5923,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
@@ -5944,16 +5944,16 @@
         <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>1405.542830531281</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>1116.125660494321</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X22" t="n">
-        <v>888.1361095963035</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="Y22" t="n">
-        <v>888.1361095963035</v>
+        <v>969.9969164504562</v>
       </c>
     </row>
     <row r="23">
@@ -5972,10 +5972,10 @@
         <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5984,40 +5984,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972664</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420605</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604875</v>
@@ -6063,7 +6063,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7264155301117</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301117</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177759</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374724</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121914</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.724257814701</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1385.724257814701</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1354.167459503882</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.167459503882</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.374880360351</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>323.5285488293692</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>657.3479225192157</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>3070.887536710053</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.852187039507</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4345.626553396685</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>965.3449658766825</v>
+        <v>709.4168978689407</v>
       </c>
       <c r="C28" t="n">
-        <v>796.4087829487756</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D28" t="n">
-        <v>646.2921435364399</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6391,7 +6391,7 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
@@ -6415,19 +6415,19 @@
         <v>1764.65758193153</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057173</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V28" t="n">
-        <v>1475.554715057173</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="W28" t="n">
         <v>1186.137545020213</v>
       </c>
       <c r="X28" t="n">
-        <v>1186.137545020213</v>
+        <v>958.1479941221957</v>
       </c>
       <c r="Y28" t="n">
-        <v>965.3449658766825</v>
+        <v>737.3554149786656</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2368.748013620957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3348.500285847604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,13 +6494,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>392.8404695303064</v>
+        <v>567.9454261809094</v>
       </c>
       <c r="C31" t="n">
-        <v>392.8404695303064</v>
+        <v>399.0092432530025</v>
       </c>
       <c r="D31" t="n">
-        <v>392.8404695303064</v>
+        <v>399.0092432530025</v>
       </c>
       <c r="E31" t="n">
-        <v>244.9273759479133</v>
+        <v>399.0092432530025</v>
       </c>
       <c r="F31" t="n">
-        <v>98.03742845000298</v>
+        <v>399.0092432530025</v>
       </c>
       <c r="G31" t="n">
-        <v>98.03742845000298</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>98.03742845000298</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6649,22 +6649,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1385.724257814702</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V31" t="n">
-        <v>1131.039769608815</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W31" t="n">
-        <v>841.6225995718539</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="X31" t="n">
-        <v>613.6330486738366</v>
+        <v>970.3864701546793</v>
       </c>
       <c r="Y31" t="n">
-        <v>392.8404695303064</v>
+        <v>749.5938910111491</v>
       </c>
     </row>
     <row r="32">
@@ -6677,13 +6677,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
         <v>850.213983755162</v>
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2782.232616025903</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3329.011433084685</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6783,7 +6783,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>854.4007383484569</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C34" t="n">
-        <v>854.4007383484569</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D34" t="n">
-        <v>704.2840989361212</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E34" t="n">
-        <v>556.371005353728</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,13 +6859,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
         <v>1346.796070598116</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1484.831333220244</v>
+        <v>1812.520812468749</v>
       </c>
       <c r="U34" t="n">
-        <v>1484.831333220244</v>
+        <v>1812.520812468749</v>
       </c>
       <c r="V34" t="n">
-        <v>1484.831333220244</v>
+        <v>1812.520812468749</v>
       </c>
       <c r="W34" t="n">
-        <v>1484.831333220244</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="X34" t="n">
-        <v>1256.841782322227</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y34" t="n">
-        <v>1036.049203178697</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="35">
@@ -6917,49 +6917,49 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467794</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1771.984857554752</v>
+        <v>1273.952146712634</v>
       </c>
       <c r="M35" t="n">
-        <v>2305.516762226676</v>
+        <v>1807.484051384558</v>
       </c>
       <c r="N35" t="n">
-        <v>2852.295579285459</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309627</v>
@@ -6971,16 +6971,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,10 +7011,10 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K36" t="n">
         <v>413.0883853676538</v>
@@ -7075,13 +7075,13 @@
         <v>652.6145002899666</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G37" t="n">
         <v>229.7905149643395</v>
@@ -7090,7 +7090,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
@@ -7102,7 +7102,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
-        <v>1468.364237198916</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.89614187084</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2548.674958929623</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521973</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277655</v>
+        <v>3977.401766380301</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899671</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257046</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913847</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415476</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7351,31 +7351,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T40" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689498</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7409,28 +7409,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557147</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455613</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
         <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>2030.265665799117</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N41" t="n">
-        <v>2577.044482857899</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O41" t="n">
-        <v>3080.016953737236</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
@@ -7445,16 +7445,16 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D42" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F42" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D43" t="n">
         <v>549.9474938257042</v>
@@ -7555,7 +7555,7 @@
         <v>449.4840331913844</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643395</v>
@@ -7570,10 +7570,10 @@
         <v>172.7749345960312</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7591,10 +7591,10 @@
         <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T43" t="n">
         <v>1953.038372570352</v>
@@ -7606,13 +7606,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
         <v>1711.594658697161</v>
@@ -7634,52 +7634,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467793</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.411539465894</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N44" t="n">
-        <v>2568.163811692541</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O44" t="n">
-        <v>3071.136282571878</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P44" t="n">
-        <v>3539.850575768668</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
         <v>3346.282596468334</v>
@@ -7688,7 +7688,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977806</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246656</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572846</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7740,25 +7740,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R45" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S45" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T45" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U45" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V45" t="n">
         <v>1794.243147664371</v>
@@ -7767,10 +7767,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X45" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y45" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
@@ -7810,7 +7810,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>58.66293235392146</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>212.3253139122131</v>
+        <v>144.8972109257271</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>245.9915417147488</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>160.5908238407931</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8933,22 +8933,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>317.5146261106155</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="K17" t="n">
-        <v>316.10123714542</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9413,16 +9413,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>316.1012371454192</v>
       </c>
       <c r="Q20" t="n">
-        <v>170.1140909277318</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>189.7998007892653</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>39.48321557772658</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>126.3855966773246</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>226.768859619311</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>246.454569480845</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,16 +10586,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>400.2032972882108</v>
+        <v>221.2853655744079</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>306.6874953089242</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>21.13839585591461</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>446.317299326487</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,13 +11306,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>74.6867947874868</v>
+        <v>187.8883066283053</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>330.0732259346899</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>330.0732259346901</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.6201346409097</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>34.45276913823328</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>27.32776710129085</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>256.6560938202194</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>114.4471047229261</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>130.3466769161727</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>87.88357004526506</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004756</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>212.6058015879221</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,19 +24415,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>105.0742887270137</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>255.2817680088794</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>152.1728482433097</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>57.412035845684</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>106.719516866625</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>93.90079034824562</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,16 +24889,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>31.45311572204342</v>
+        <v>77.16452217657374</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25135,10 +25135,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="C2" t="n">
         <v>246312.5309592849</v>
@@ -26323,22 +26323,22 @@
         <v>230366.9234968695</v>
       </c>
       <c r="F2" t="n">
+        <v>238249.0721321899</v>
+      </c>
+      <c r="G2" t="n">
+        <v>238249.0721321899</v>
+      </c>
+      <c r="H2" t="n">
         <v>238249.0721321898</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>238249.0721321898</v>
       </c>
-      <c r="H2" t="n">
-        <v>238249.0721321897</v>
-      </c>
-      <c r="I2" t="n">
-        <v>238249.0721321899</v>
-      </c>
       <c r="J2" t="n">
-        <v>238249.0721321899</v>
+        <v>238249.07213219</v>
       </c>
       <c r="K2" t="n">
-        <v>238249.0721321898</v>
+        <v>238249.07213219</v>
       </c>
       <c r="L2" t="n">
         <v>238249.0721321898</v>
@@ -26350,10 +26350,10 @@
         <v>246312.5309592848</v>
       </c>
       <c r="O2" t="n">
+        <v>246312.5309592848</v>
+      </c>
+      <c r="P2" t="n">
         <v>246312.5309592849</v>
-      </c>
-      <c r="P2" t="n">
-        <v>246312.5309592846</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532785.1170417517</v>
+        <v>532785.1170417529</v>
       </c>
       <c r="C3" t="n">
-        <v>54350.41925868015</v>
+        <v>54350.41925867905</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>701982.4944785831</v>
+        <v>701982.4944785829</v>
       </c>
       <c r="F3" t="n">
-        <v>24369.86217639735</v>
+        <v>24369.86217639742</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>163576.6135091289</v>
+        <v>163576.6135091293</v>
       </c>
       <c r="K3" t="n">
-        <v>12636.6559582553</v>
+        <v>12636.65595825503</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>101126.2087541144</v>
+        <v>101126.2087541143</v>
       </c>
       <c r="N3" t="n">
-        <v>20831.74732233186</v>
+        <v>20831.74732233202</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233988.7908692829</v>
+        <v>233988.7908692826</v>
       </c>
       <c r="C4" t="n">
+        <v>218780.324998335</v>
+      </c>
+      <c r="D4" t="n">
         <v>218780.3249983351</v>
       </c>
-      <c r="D4" t="n">
-        <v>218780.324998335</v>
-      </c>
       <c r="E4" t="n">
-        <v>25961.10295481877</v>
+        <v>25961.10295481881</v>
       </c>
       <c r="F4" t="n">
-        <v>32032.95503079762</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="G4" t="n">
-        <v>32032.95503079767</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="H4" t="n">
-        <v>32032.95503079764</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="I4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="J4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="K4" t="n">
         <v>32032.95503079769</v>
       </c>
       <c r="L4" t="n">
-        <v>32032.95503079767</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="M4" t="n">
         <v>66395.57832303867</v>
       </c>
       <c r="N4" t="n">
-        <v>66395.57832303866</v>
+        <v>66395.57832303867</v>
       </c>
       <c r="O4" t="n">
         <v>66395.57832303866</v>
       </c>
       <c r="P4" t="n">
-        <v>66395.57832303869</v>
+        <v>66395.57832303867</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78952.41907175115</v>
+        <v>78952.41907175124</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91212.30300509764</v>
+        <v>91212.30300509761</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-599413.7960235009</v>
+        <v>-599413.7960235018</v>
       </c>
       <c r="C6" t="n">
-        <v>-109677.2913611398</v>
+        <v>-109677.2913611387</v>
       </c>
       <c r="D6" t="n">
         <v>-55326.87210245951</v>
       </c>
       <c r="E6" t="n">
-        <v>-588788.97694163</v>
+        <v>-588921.8570038165</v>
       </c>
       <c r="F6" t="n">
-        <v>85462.73667128111</v>
+        <v>85395.54118105539</v>
       </c>
       <c r="G6" t="n">
-        <v>109832.5988476785</v>
+        <v>109765.4033574528</v>
       </c>
       <c r="H6" t="n">
-        <v>109832.5988476784</v>
+        <v>109765.4033574527</v>
       </c>
       <c r="I6" t="n">
-        <v>109832.5988476785</v>
+        <v>109765.4033574527</v>
       </c>
       <c r="J6" t="n">
-        <v>-53744.01466145043</v>
+        <v>-53811.21015167645</v>
       </c>
       <c r="K6" t="n">
-        <v>97195.94288942312</v>
+        <v>97128.7473991978</v>
       </c>
       <c r="L6" t="n">
-        <v>109832.5988476785</v>
+        <v>109765.4033574527</v>
       </c>
       <c r="M6" t="n">
-        <v>-10587.19779267444</v>
+        <v>-10587.19779267427</v>
       </c>
       <c r="N6" t="n">
-        <v>69707.26363910816</v>
+        <v>69707.26363910799</v>
       </c>
       <c r="O6" t="n">
-        <v>90539.0109614401</v>
+        <v>90539.01096143998</v>
       </c>
       <c r="P6" t="n">
-        <v>90539.01096143981</v>
+        <v>90539.01096144007</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>335.4773500371846</v>
+        <v>335.4773500371854</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26774,7 +26774,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.1877111996797</v>
+        <v>625.1877111996807</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="N4" t="n">
         <v>1014.336461208615</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>335.4773500371846</v>
+        <v>335.4773500371854</v>
       </c>
       <c r="C3" t="n">
-        <v>42.26631417990205</v>
+        <v>42.2663141799012</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.1877111996797</v>
+        <v>625.1877111996807</v>
       </c>
       <c r="C4" t="n">
-        <v>49.09956155487589</v>
+        <v>49.09956155487487</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>435.1727754718216</v>
+        <v>435.1727754718212</v>
       </c>
       <c r="F4" t="n">
-        <v>85.05288237855325</v>
+        <v>85.05288237855348</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>625.1877111996795</v>
+        <v>625.1877111996807</v>
       </c>
       <c r="K4" t="n">
-        <v>49.09956155487589</v>
+        <v>49.09956155487487</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>254.996306075506</v>
+        <v>254.9963060755053</v>
       </c>
       <c r="N4" t="n">
-        <v>85.05288237855302</v>
+        <v>85.0528823785537</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>625.1877111996797</v>
+        <v>625.1877111996807</v>
       </c>
       <c r="K4" t="n">
-        <v>49.09956155487589</v>
+        <v>49.09956155487487</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>435.1727754718216</v>
+        <v>435.1727754718212</v>
       </c>
       <c r="N4" t="n">
-        <v>85.05288237855325</v>
+        <v>85.05288237855348</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>325.6629130260453</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>178.2876470175123</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.1921225298086</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2377606947592</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>76.94636919241125</v>
       </c>
       <c r="W2" t="n">
-        <v>309.8192877263111</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>35.81705739169142</v>
+        <v>64.55231966469898</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>55.35578351937522</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>82.4421378574803</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>93.71387736083879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.386020202654</v>
       </c>
       <c r="H4" t="n">
-        <v>156.8485356494664</v>
+        <v>156.8485356494663</v>
       </c>
       <c r="I4" t="n">
         <v>137.2577032236024</v>
       </c>
       <c r="J4" t="n">
-        <v>50.58856780127631</v>
+        <v>50.58856780127621</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.50496339607952</v>
+        <v>35.50496339607939</v>
       </c>
       <c r="R4" t="n">
-        <v>150.0922278807119</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>213.4738098399021</v>
+        <v>213.473809839902</v>
       </c>
       <c r="T4" t="n">
         <v>225.3607639443884</v>
@@ -27594,16 +27594,16 @@
         <v>286.2860315843561</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>83.82820422566047</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>302.0594520682147</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>43.42417901531769</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>40.51272586019039</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>48.34766866953115</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>84.4091419981558</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>31.48572239862756</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>55.14106060940512</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>29.31973862975448</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.961097950697877e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-5.320327511881828e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-6.749359691827427e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.348652663466068</v>
+        <v>1.348652663466071</v>
       </c>
       <c r="H2" t="n">
-        <v>13.81188908972187</v>
+        <v>13.8118890897219</v>
       </c>
       <c r="I2" t="n">
-        <v>51.99393180827563</v>
+        <v>51.99393180827575</v>
       </c>
       <c r="J2" t="n">
-        <v>114.4652089958533</v>
+        <v>114.4652089958536</v>
       </c>
       <c r="K2" t="n">
-        <v>171.5536762403719</v>
+        <v>171.5536762403724</v>
       </c>
       <c r="L2" t="n">
-        <v>212.8275051899217</v>
+        <v>212.8275051899222</v>
       </c>
       <c r="M2" t="n">
-        <v>236.8116069938363</v>
+        <v>236.8116069938369</v>
       </c>
       <c r="N2" t="n">
-        <v>240.6434663739093</v>
+        <v>240.6434663739099</v>
       </c>
       <c r="O2" t="n">
-        <v>227.2328014515686</v>
+        <v>227.2328014515691</v>
       </c>
       <c r="P2" t="n">
-        <v>193.93793882225</v>
+        <v>193.9379388222505</v>
       </c>
       <c r="Q2" t="n">
-        <v>145.6393153118714</v>
+        <v>145.6393153118718</v>
       </c>
       <c r="R2" t="n">
-        <v>84.71730287145044</v>
+        <v>84.71730287145066</v>
       </c>
       <c r="S2" t="n">
-        <v>30.73242256873305</v>
+        <v>30.73242256873312</v>
       </c>
       <c r="T2" t="n">
-        <v>5.903727034322714</v>
+        <v>5.903727034322729</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1078922130772854</v>
+        <v>0.1078922130772857</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7215927906460197</v>
+        <v>0.7215927906460216</v>
       </c>
       <c r="H3" t="n">
-        <v>6.969067214923402</v>
+        <v>6.969067214923419</v>
       </c>
       <c r="I3" t="n">
-        <v>24.84431318671603</v>
+        <v>24.8443131867161</v>
       </c>
       <c r="J3" t="n">
-        <v>68.17469431274523</v>
+        <v>68.1746943127454</v>
       </c>
       <c r="K3" t="n">
-        <v>116.5214112860285</v>
+        <v>116.5214112860288</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6774171093474</v>
+        <v>156.6774171093478</v>
       </c>
       <c r="M3" t="n">
-        <v>182.8351557702656</v>
+        <v>182.835155770266</v>
       </c>
       <c r="N3" t="n">
-        <v>187.674258300519</v>
+        <v>187.6742583005194</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6852812025203</v>
+        <v>171.6852812025207</v>
       </c>
       <c r="P3" t="n">
-        <v>137.7925742067825</v>
+        <v>137.7925742067828</v>
       </c>
       <c r="Q3" t="n">
-        <v>92.11068674983227</v>
+        <v>92.11068674983251</v>
       </c>
       <c r="R3" t="n">
-        <v>44.8020506332678</v>
+        <v>44.80205063326792</v>
       </c>
       <c r="S3" t="n">
-        <v>13.40326959818373</v>
+        <v>13.40326959818377</v>
       </c>
       <c r="T3" t="n">
-        <v>2.908525327209175</v>
+        <v>2.908525327209182</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04747320991092237</v>
+        <v>0.04747320991092249</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.604959155804759</v>
+        <v>0.6049591558047606</v>
       </c>
       <c r="H4" t="n">
-        <v>5.378636857973225</v>
+        <v>5.378636857973238</v>
       </c>
       <c r="I4" t="n">
-        <v>18.19277170365585</v>
+        <v>18.1927717036559</v>
       </c>
       <c r="J4" t="n">
-        <v>42.77061231539646</v>
+        <v>42.77061231539657</v>
       </c>
       <c r="K4" t="n">
-        <v>70.28525464713471</v>
+        <v>70.28525464713489</v>
       </c>
       <c r="L4" t="n">
-        <v>89.94092758210027</v>
+        <v>89.9409275821005</v>
       </c>
       <c r="M4" t="n">
-        <v>94.83009748674053</v>
+        <v>94.83009748674077</v>
       </c>
       <c r="N4" t="n">
-        <v>92.5752497241956</v>
+        <v>92.57524972419583</v>
       </c>
       <c r="O4" t="n">
-        <v>85.50822685865815</v>
+        <v>85.50822685865838</v>
       </c>
       <c r="P4" t="n">
-        <v>73.167060080241</v>
+        <v>73.16706008024119</v>
       </c>
       <c r="Q4" t="n">
-        <v>50.65707985561487</v>
+        <v>50.657079855615</v>
       </c>
       <c r="R4" t="n">
-        <v>27.20116349645761</v>
+        <v>27.20116349645768</v>
       </c>
       <c r="S4" t="n">
-        <v>10.54278819707021</v>
+        <v>10.54278819707023</v>
       </c>
       <c r="T4" t="n">
-        <v>2.584825483893061</v>
+        <v>2.584825483893067</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03299777213480508</v>
+        <v>0.03299777213480516</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32315,13 +32315,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32555,7 +32555,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32804,10 +32804,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33734,10 +33734,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34129,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34281,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>102.5159196412407</v>
+        <v>102.515919641241</v>
       </c>
       <c r="K2" t="n">
-        <v>275.6092377665561</v>
+        <v>275.6092377665566</v>
       </c>
       <c r="L2" t="n">
-        <v>394.7223047703849</v>
+        <v>394.7223047703854</v>
       </c>
       <c r="M2" t="n">
-        <v>455.9789072593961</v>
+        <v>455.9789072593967</v>
       </c>
       <c r="N2" t="n">
-        <v>448.5773271893025</v>
+        <v>448.5773271893032</v>
       </c>
       <c r="O2" t="n">
-        <v>377.9347712926272</v>
+        <v>377.9347712926278</v>
       </c>
       <c r="P2" t="n">
-        <v>284.5036512384631</v>
+        <v>284.5036512384636</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.6486160973266</v>
+        <v>135.648616097327</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>67.42810298648754</v>
       </c>
       <c r="K3" t="n">
-        <v>243.1452093242481</v>
+        <v>243.1452093242484</v>
       </c>
       <c r="L3" t="n">
-        <v>388.9633826329324</v>
+        <v>388.9633826329328</v>
       </c>
       <c r="M3" t="n">
-        <v>506.4061855982471</v>
+        <v>506.4061855982476</v>
       </c>
       <c r="N3" t="n">
-        <v>535.6749205607392</v>
+        <v>535.6749205607397</v>
       </c>
       <c r="O3" t="n">
-        <v>422.9513560348054</v>
+        <v>422.9513560348058</v>
       </c>
       <c r="P3" t="n">
-        <v>216.1434807046654</v>
+        <v>148.7153777181796</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.2062003996598</v>
+        <v>162.2062003996601</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.01576282125185</v>
+        <v>48.01576282125204</v>
       </c>
       <c r="L4" t="n">
-        <v>117.5309528424164</v>
+        <v>117.5309528424166</v>
       </c>
       <c r="M4" t="n">
-        <v>134.4139744485811</v>
+        <v>134.4139744485814</v>
       </c>
       <c r="N4" t="n">
-        <v>136.7074221034242</v>
+        <v>136.7074221034244</v>
       </c>
       <c r="O4" t="n">
-        <v>110.0933547726978</v>
+        <v>110.093354772698</v>
       </c>
       <c r="P4" t="n">
-        <v>70.44561934513449</v>
+        <v>70.44561934513467</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>784.9126575449756</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>712.8926592537046</v>
       </c>
       <c r="O11" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35653,22 +35653,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>856.4357419408423</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>324.040058608738</v>
       </c>
       <c r="K17" t="n">
-        <v>653.2925237008205</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36133,16 +36133,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>714.8632233647911</v>
       </c>
       <c r="Q20" t="n">
-        <v>420.9083957314513</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>742.1016362021768</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,10 +36452,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306618</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,7 +36528,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>230.2702165464391</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>377.1799014810441</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
@@ -36838,22 +36838,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>734.8218605075301</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>754.5075703690641</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37306,16 +37306,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>855.7934116805429</v>
+        <v>676.87547996674</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37555,16 +37555,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>814.7404961971433</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>80.75159439813939</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>985.2384151567139</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37947,10 +37947,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
         <v>281.932207763703</v>
@@ -38017,7 +38017,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38026,13 +38026,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>473.4487810068587</v>
+        <v>586.6502928476772</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
